--- a/Scripts/personDetails.xlsx
+++ b/Scripts/personDetails.xlsx
@@ -398,10 +398,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.6"/>
@@ -468,6 +468,9 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="n">
+        <v>123</v>
+      </c>
       <c r="F2" s="2" t="n"/>
       <c r="G2" s="2" t="n"/>
     </row>
@@ -549,101 +552,123 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>20230309Z</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>z</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>z</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20230309X</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20230309RA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Raju Rastogi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>rajuShyam</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>123123</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>123</v>
+      </c>
+      <c r="G7" t="n">
+        <v>123</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>KALTAK</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Scripts/personDetails.xlsx
+++ b/Scripts/personDetails.xlsx
@@ -1,33 +1,112 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golu6\Downloads\CMS\Scripts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9C61F4-BCB5-41DC-9D44-78193573635F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>FULL NAME</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>MOBILE NUMBER</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>AADHAAR CARD NO.</t>
+  </si>
+  <si>
+    <t>PAN CARD NUMBER</t>
+  </si>
+  <si>
+    <t>BANK NAME</t>
+  </si>
+  <si>
+    <t>ACCOUNT NUMBER</t>
+  </si>
+  <si>
+    <t>20230227JE</t>
+  </si>
+  <si>
+    <t>Jenish Kanani</t>
+  </si>
+  <si>
+    <t>jenishkanani93@gmail.com</t>
+  </si>
+  <si>
+    <t>GPG, Gandhinagar</t>
+  </si>
+  <si>
+    <t>Apna Bank</t>
+  </si>
+  <si>
+    <t>20230227DE</t>
+  </si>
+  <si>
+    <t>Devang Sharma</t>
+  </si>
+  <si>
+    <t>devang.sharma.7054@gmail.com</t>
+  </si>
+  <si>
+    <t>abs</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>20230225RA</t>
+  </si>
+  <si>
+    <t>Ahmedabad, Sabaramati</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -45,81 +124,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -385,234 +408,147 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col width="12.15234375" customWidth="1" min="1" max="1"/>
-    <col width="16.07421875" customWidth="1" min="2" max="2"/>
-    <col width="27.61328125" customWidth="1" min="3" max="3"/>
-    <col width="13.23046875" customWidth="1" min="4" max="4"/>
-    <col width="17.53515625" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="15.15234375" customWidth="1" min="7" max="7"/>
-    <col width="19.53515625" customWidth="1" min="8" max="8"/>
-    <col width="18.07421875" customWidth="1" min="9" max="9"/>
+    <col min="1" max="1" width="11.765625" customWidth="1"/>
+    <col min="2" max="2" width="16.07421875" customWidth="1"/>
+    <col min="3" max="3" width="27.61328125" customWidth="1"/>
+    <col min="4" max="4" width="13.23046875" customWidth="1"/>
+    <col min="5" max="5" width="17.53515625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="20.07421875" customWidth="1"/>
+    <col min="8" max="8" width="19.53515625" customWidth="1"/>
+    <col min="9" max="9" width="18.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>FULL NAME</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>EMAIL</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>MOBILE NUMBER</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>ADDRESS</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>AADHAAR CARD NO.</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>PAN CARD NUMBER</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>BANK NAME</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>ACCOUNT NUMBER</t>
-        </is>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>20230227JE</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Jenish Kanani</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>jenishkanani93@gmail.com</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
         <v>8866432894</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>GPG, Gandhinagar</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
         <v>1234124</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>12341234</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Apna Bank</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3">
         <v>1231324123</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>20230227DE</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Devang Sharma</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>devang.sharma.7054@gmail.com</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
         <v>12345678990</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>abs</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4">
         <v>1232114</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>124124</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>abc</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4">
         <v>123</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>20230225RA</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Devang Sharma</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>devang.sharma.7054@gmail.com</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
         <v>8866432894</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Ahmedabad, Sabaramati</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5">
         <v>12331223123</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>435554313354</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Apna Bank</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5">
         <v>124345513</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>20230225RA</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Devang Sharma</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>devang.sharma.7054@gmail.com</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>8866432894</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Ahmedabad, Sabaramati</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>12331223123</v>
-      </c>
-      <c r="G6" t="n">
-        <v>435554313354</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Apna Bank</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>124345513</v>
-      </c>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Scripts/personDetails.xlsx
+++ b/Scripts/personDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golu6\Downloads\CMS\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9C61F4-BCB5-41DC-9D44-78193573635F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC39337-52A7-4CD4-8831-B09075861C87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Id</t>
   </si>
@@ -83,6 +83,18 @@
   </si>
   <si>
     <t>Ahmedabad, Sabaramati</t>
+  </si>
+  <si>
+    <t>20230319SH</t>
+  </si>
+  <si>
+    <t>Shah Rukh</t>
+  </si>
+  <si>
+    <t>abc, st bus stand</t>
+  </si>
+  <si>
+    <t>GSRTC</t>
   </si>
 </sst>
 </file>
@@ -409,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -547,8 +559,37 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="I6" s="1"/>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>8866432894</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7">
+        <v>1234</v>
+      </c>
+      <c r="G7">
+        <v>12414</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7">
+        <v>123331</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/Scripts/personDetails.xlsx
+++ b/Scripts/personDetails.xlsx
@@ -1,124 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golu6\Downloads\CMS\Scripts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC39337-52A7-4CD4-8831-B09075861C87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>FULL NAME</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>MOBILE NUMBER</t>
-  </si>
-  <si>
-    <t>ADDRESS</t>
-  </si>
-  <si>
-    <t>AADHAAR CARD NO.</t>
-  </si>
-  <si>
-    <t>PAN CARD NUMBER</t>
-  </si>
-  <si>
-    <t>BANK NAME</t>
-  </si>
-  <si>
-    <t>ACCOUNT NUMBER</t>
-  </si>
-  <si>
-    <t>20230227JE</t>
-  </si>
-  <si>
-    <t>Jenish Kanani</t>
-  </si>
-  <si>
-    <t>jenishkanani93@gmail.com</t>
-  </si>
-  <si>
-    <t>GPG, Gandhinagar</t>
-  </si>
-  <si>
-    <t>Apna Bank</t>
-  </si>
-  <si>
-    <t>20230227DE</t>
-  </si>
-  <si>
-    <t>Devang Sharma</t>
-  </si>
-  <si>
-    <t>devang.sharma.7054@gmail.com</t>
-  </si>
-  <si>
-    <t>abs</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>20230225RA</t>
-  </si>
-  <si>
-    <t>Ahmedabad, Sabaramati</t>
-  </si>
-  <si>
-    <t>20230319SH</t>
-  </si>
-  <si>
-    <t>Shah Rukh</t>
-  </si>
-  <si>
-    <t>abc, st bus stand</t>
-  </si>
-  <si>
-    <t>GSRTC</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
-      <color rgb="FFB5CEA8"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <color rgb="FFB5CEA8"/>
+      <sz val="6"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -137,24 +52,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -420,174 +394,329 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="11.765625" customWidth="1"/>
-    <col min="2" max="2" width="16.07421875" customWidth="1"/>
-    <col min="3" max="3" width="27.61328125" customWidth="1"/>
-    <col min="4" max="4" width="13.23046875" customWidth="1"/>
-    <col min="5" max="5" width="17.53515625" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="20.07421875" customWidth="1"/>
-    <col min="8" max="8" width="19.53515625" customWidth="1"/>
-    <col min="9" max="9" width="18.07421875" customWidth="1"/>
+    <col width="11.765625" customWidth="1" min="1" max="1"/>
+    <col width="16.07421875" customWidth="1" min="2" max="2"/>
+    <col width="27.61328125" customWidth="1" min="3" max="3"/>
+    <col width="13.23046875" customWidth="1" min="4" max="4"/>
+    <col width="17.53515625" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="20.07421875" customWidth="1" min="7" max="7"/>
+    <col width="19.53515625" customWidth="1" min="8" max="8"/>
+    <col width="18.07421875" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>FULL NAME</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>EMAIL</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>MOBILE NUMBER</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ADDRESS</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>AADHAAR CARD NO.</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>PAN CARD NUMBER</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>BANK NAME</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>ACCOUNT NUMBER</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>20230227JE</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Jenish Kanani</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jenishkanani93@gmail.com</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>8866432894</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>GPG, Gandhinagar</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
         <v>1234124</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>12341234</v>
       </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Apna Bank</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>1231324123</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>20230227DE</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Devang Sharma</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>devang.sharma.7054@gmail.com</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>12345678990</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>abs</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
         <v>1232114</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>124124</v>
       </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>20230225RA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Devang Sharma</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>devang.sharma.7054@gmail.com</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>8866432894</v>
       </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ahmedabad, Sabaramati</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
         <v>12331223123</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>435554313354</v>
       </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Apna Bank</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>124345513</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I6" s="1"/>
+    <row r="6">
+      <c r="I6" s="1" t="n"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20230319SH</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Shah Rukh</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>jenishkanani93@gmail.com</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>8866432894</v>
       </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>abc, st bus stand</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
         <v>1234</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>12414</v>
       </c>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>GSRTC</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>123331</v>
       </c>
     </row>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
